--- a/Duet-MainPCB/JLCSMT/JLCSMT_BOM.xlsx
+++ b/Duet-MainPCB/JLCSMT/JLCSMT_BOM.xlsx
@@ -112,7 +112,7 @@
     <t xml:space="preserve">C_0603_1608Metric</t>
   </si>
   <si>
-    <t xml:space="preserve">C19702</t>
+    <t xml:space="preserve">C96446</t>
   </si>
   <si>
     <t xml:space="preserve">1N4148W</t>
@@ -574,7 +574,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
